--- a/biology/Botanique/Mahurea/Mahurea.xlsx
+++ b/biology/Botanique/Mahurea/Mahurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mahurea est un genre de plantes à fleurs de la famille des Calophyllaceae (anciennement des Clusiaceae), comprenant 2 à 8 espèces amazono-guyanaises , et dont l'espèce type est Mahurea palustris Aubl..
 Le nom Mahurea provient vraisemblablement du nom de la rivière du Mahury qui s'écoule entre Cayenne et Roura en Guyane.
@@ -512,9 +524,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « MAHUREA. (Tabula 222.)
 CAL. Perianthium monophyllum, quinquepartitum ; laciniis duabus majoribus, ſubrotundis, acutis.
 COR. Petala quinque ; tribus minoribus, erectis, duobus majoribus, declinatis &amp; remotis ; omnibus ovatis, acutis, concavis ; receptaculo ſtaminum &amp; piſtilli inſerta.
@@ -550,9 +564,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (8 mars 2022)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (8 mars 2022) (Attention liste brute contenant possiblement des synonymes) :
 Mahurea casiquiarensis Spruce ex Benth., 1861
 Mahurea duckei Huber, 1913
 Mahurea exstipulata Benth., 1843
